--- a/BalanceSheet/MDLZ_bal.xlsx
+++ b/BalanceSheet/MDLZ_bal.xlsx
@@ -4407,7 +4407,7 @@
         <v>18271000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>17716000000.0</v>
+        <v>14497000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>14730000000.0</v>
@@ -4534,7 +4534,7 @@
         <v>20223000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>19007000000.0</v>
+        <v>15788000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>16267000000.0</v>
